--- a/Projects 2021/Saifee Hospital Cardiac wing/001- Quotation for Plumbing work.xlsx
+++ b/Projects 2021/Saifee Hospital Cardiac wing/001- Quotation for Plumbing work.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40A07D0-A372-4A71-B2B8-E51F59447E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F260E9C-640B-49D2-85C0-424F294DB81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,10 +81,10 @@
     <t>Removal of existing buried drainage 04" dia pipe connection and reinstallation of new pipe with related fittings including connection with new manhole.</t>
   </si>
   <si>
-    <t>Supply and installation of 08" Dia UPVC pipe Class-D (SCH-40) with related fittings including digging of earth complete in all respect.</t>
-  </si>
-  <si>
     <t>PES/001/12/23</t>
+  </si>
+  <si>
+    <t>Supply and installation of 12" Dia UPVC pipe Class-D (SCH-40) with related fittings including digging of earth complete in all respect.</t>
   </si>
 </sst>
 </file>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A9:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,14 +975,14 @@
   <sheetData>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="H9" s="15">
-        <v>45266</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>16</v>
@@ -1062,14 +1062,14 @@
         <v>130</v>
       </c>
       <c r="E16" s="11">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="F16" s="11">
         <v>1000</v>
       </c>
       <c r="G16" s="11">
         <f>E16*D16</f>
-        <v>234000</v>
+        <v>624000</v>
       </c>
       <c r="H16" s="11">
         <f>F16*D16</f>
@@ -1178,7 +1178,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="24">
         <f>SUM(G16:G19)</f>
-        <v>783000</v>
+        <v>1173000</v>
       </c>
       <c r="H20" s="24">
         <f>SUM(H16:H19)</f>
@@ -1215,7 +1215,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="23">
         <f>G21+G20</f>
-        <v>783000</v>
+        <v>1173000</v>
       </c>
       <c r="H22" s="23">
         <f>H21+H20</f>
@@ -1234,7 +1234,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="29">
         <f>H20+G20</f>
-        <v>1009000</v>
+        <v>1399000</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="20"/>
